--- a/FinalResultSeperate/SubTechniques/FinalSubTechniquesNegative.xlsx
+++ b/FinalResultSeperate/SubTechniques/FinalSubTechniquesNegative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scientificnet-my.sharepoint.com/personal/ramneh_unibz_it/Documents/Desktop/P.hD Stuff/SRC/Web_App_Flask/NewMapping/FinalResultSeperate/SubTechniques/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scientificnet-my.sharepoint.com/personal/ramneh_unibz_it/Documents/Desktop/P.hD Stuff/SRC/DeepLearning_TransformersProject/FinalResultSeperate/SubTechniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{821164BD-0CB3-476B-9CA6-F6BB78D1B402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25C9698C-0015-4F8A-8717-B6B0DCFC842F}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{821164BD-0CB3-476B-9CA6-F6BB78D1B402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75B5F33B-591B-4533-B91E-F50EB1DB2C9D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="792">
   <si>
     <t>TacticId</t>
   </si>
@@ -2978,7 +2978,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3010,10 +3020,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3306,12 +3312,12 @@
   <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3491,7 +3497,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -3511,7 +3517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -3531,7 +3537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3611,7 +3617,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3891,7 +3897,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3931,7 +3937,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>138</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -4091,7 +4097,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -4131,7 +4137,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>138</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -4191,7 +4197,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -4211,7 +4217,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -4271,7 +4277,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>138</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>138</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>138</v>
       </c>
@@ -4331,7 +4337,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -4451,7 +4457,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -4471,7 +4477,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -4511,7 +4517,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4571,7 +4577,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4591,7 +4597,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -4611,7 +4617,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -4711,7 +4717,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -4731,7 +4737,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -4751,7 +4757,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -4771,7 +4777,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -4811,7 +4817,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -4831,7 +4837,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -4851,7 +4857,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -4871,7 +4877,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -4911,7 +4917,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -4931,7 +4937,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -4951,7 +4957,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -5071,7 +5077,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -5091,7 +5097,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -5131,7 +5137,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -5151,7 +5157,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -5171,7 +5177,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -5191,7 +5197,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -5231,7 +5237,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -5251,7 +5257,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -5311,7 +5317,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -5331,7 +5337,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -5371,7 +5377,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -5391,7 +5397,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -5411,7 +5417,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -5431,7 +5437,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -5451,7 +5457,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -5471,7 +5477,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -5511,7 +5517,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -5571,7 +5577,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -5591,7 +5597,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -5611,7 +5617,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -5651,7 +5657,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -5691,7 +5697,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -5751,7 +5757,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -5771,7 +5777,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -5791,7 +5797,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>420</v>
       </c>
@@ -5811,7 +5817,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>420</v>
       </c>
@@ -5831,7 +5837,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>420</v>
       </c>
@@ -5851,7 +5857,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>420</v>
       </c>
@@ -5871,7 +5877,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>420</v>
       </c>
@@ -5891,7 +5897,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>420</v>
       </c>
@@ -5911,7 +5917,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>420</v>
       </c>
@@ -5931,7 +5937,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>420</v>
       </c>
@@ -5951,7 +5957,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>420</v>
       </c>
@@ -5971,7 +5977,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>420</v>
       </c>
@@ -5991,7 +5997,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>420</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>420</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>420</v>
       </c>
@@ -6051,7 +6057,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>420</v>
       </c>
@@ -6071,7 +6077,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>420</v>
       </c>
@@ -6091,7 +6097,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>420</v>
       </c>
@@ -6111,7 +6117,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>420</v>
       </c>
@@ -6131,7 +6137,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>474</v>
       </c>
@@ -6151,7 +6157,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>474</v>
       </c>
@@ -6171,7 +6177,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>474</v>
       </c>
@@ -6191,7 +6197,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>474</v>
       </c>
@@ -6211,7 +6217,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>474</v>
       </c>
@@ -6231,7 +6237,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>474</v>
       </c>
@@ -6251,7 +6257,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>474</v>
       </c>
@@ -6271,7 +6277,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>474</v>
       </c>
@@ -6291,7 +6297,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>474</v>
       </c>
@@ -6311,7 +6317,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>474</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -6351,7 +6357,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -6371,7 +6377,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -6391,7 +6397,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -6431,7 +6437,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -6451,7 +6457,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -6471,7 +6477,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>528</v>
       </c>
@@ -6491,7 +6497,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>528</v>
       </c>
@@ -6511,7 +6517,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>528</v>
       </c>
@@ -6531,7 +6537,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>528</v>
       </c>
@@ -6551,7 +6557,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>528</v>
       </c>
@@ -6571,7 +6577,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>528</v>
       </c>
@@ -6591,7 +6597,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>528</v>
       </c>
@@ -6611,7 +6617,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>528</v>
       </c>
@@ -6631,7 +6637,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>528</v>
       </c>
@@ -6651,7 +6657,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>558</v>
       </c>
@@ -6671,7 +6677,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>558</v>
       </c>
@@ -6691,7 +6697,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>558</v>
       </c>
@@ -6711,7 +6717,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>558</v>
       </c>
@@ -6731,7 +6737,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>558</v>
       </c>
@@ -6751,7 +6757,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>558</v>
       </c>
@@ -6771,7 +6777,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>558</v>
       </c>
@@ -6791,7 +6797,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>558</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>558</v>
       </c>
@@ -6831,7 +6837,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>558</v>
       </c>
@@ -6851,7 +6857,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>558</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -6891,7 +6897,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -6931,7 +6937,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -6971,7 +6977,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -6991,7 +6997,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -7011,7 +7017,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -7031,7 +7037,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -7051,7 +7057,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -7111,7 +7117,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -7131,7 +7137,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -7151,7 +7157,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -7171,7 +7177,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -7191,7 +7197,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -7211,7 +7217,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -7231,7 +7237,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -7251,7 +7257,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>10</v>
       </c>
@@ -7291,7 +7297,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -7311,7 +7317,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -7331,7 +7337,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -7351,7 +7357,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>10</v>
       </c>
@@ -7371,7 +7377,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -7391,7 +7397,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -7431,7 +7437,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -7451,7 +7457,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>10</v>
       </c>
@@ -7471,7 +7477,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -7491,7 +7497,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -7511,7 +7517,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -7531,7 +7537,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -7571,7 +7577,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -7591,7 +7597,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -7611,7 +7617,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -7631,7 +7637,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -7651,7 +7657,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -7671,7 +7677,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -7691,7 +7697,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -7711,7 +7717,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -7731,7 +7737,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -7751,7 +7757,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -7771,7 +7777,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -7811,7 +7817,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -7831,7 +7837,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -7851,7 +7857,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -7891,7 +7897,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -7911,7 +7917,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -7951,7 +7957,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -7971,7 +7977,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -7991,7 +7997,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -8011,7 +8017,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -8051,7 +8057,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -8071,7 +8077,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -8091,7 +8097,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -8111,7 +8117,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -8131,7 +8137,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -8151,7 +8157,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -8171,7 +8177,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>138</v>
       </c>
@@ -8191,7 +8197,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -8211,7 +8217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -8231,7 +8237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -8251,7 +8257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -8271,7 +8277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -8291,7 +8297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -8313,7 +8319,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D250">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text=".">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text=".">
       <formula>NOT(ISERROR(SEARCH(".",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8323,1268 +8329,3523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DCC3FA-2E07-4336-A6FE-4FC4E0952834}">
-  <dimension ref="A1:A250"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" t="s">
+        <v>142</v>
+      </c>
+      <c r="L32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>153</v>
+      </c>
+      <c r="K36" t="s">
+        <v>154</v>
+      </c>
+      <c r="L36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" t="s">
+        <v>157</v>
+      </c>
+      <c r="L37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>159</v>
+      </c>
+      <c r="K38" t="s">
+        <v>160</v>
+      </c>
+      <c r="L38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>162</v>
+      </c>
+      <c r="K39" t="s">
+        <v>163</v>
+      </c>
+      <c r="L39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>165</v>
+      </c>
+      <c r="K40" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>168</v>
+      </c>
+      <c r="K41" t="s">
+        <v>169</v>
+      </c>
+      <c r="L41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" t="s">
+        <v>172</v>
+      </c>
+      <c r="L42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>174</v>
+      </c>
+      <c r="K43" t="s">
+        <v>175</v>
+      </c>
+      <c r="L43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>177</v>
+      </c>
+      <c r="K44" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>180</v>
+      </c>
+      <c r="K45" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>183</v>
+      </c>
+      <c r="K46" t="s">
+        <v>184</v>
+      </c>
+      <c r="L46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>186</v>
+      </c>
+      <c r="K47" t="s">
+        <v>187</v>
+      </c>
+      <c r="L47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>189</v>
+      </c>
+      <c r="K48" t="s">
+        <v>190</v>
+      </c>
+      <c r="L48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>192</v>
+      </c>
+      <c r="K49" t="s">
+        <v>193</v>
+      </c>
+      <c r="L49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>195</v>
+      </c>
+      <c r="K50" t="s">
+        <v>196</v>
+      </c>
+      <c r="L50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>198</v>
+      </c>
+      <c r="K51" t="s">
+        <v>199</v>
+      </c>
+      <c r="L51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>201</v>
+      </c>
+      <c r="K52" t="s">
+        <v>202</v>
+      </c>
+      <c r="L52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>204</v>
+      </c>
+      <c r="K53" t="s">
+        <v>205</v>
+      </c>
+      <c r="L53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>207</v>
+      </c>
+      <c r="K54" t="s">
+        <v>208</v>
+      </c>
+      <c r="L54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>210</v>
+      </c>
+      <c r="K55" t="s">
+        <v>211</v>
+      </c>
+      <c r="L55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>213</v>
+      </c>
+      <c r="K56" t="s">
+        <v>214</v>
+      </c>
+      <c r="L56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>216</v>
+      </c>
+      <c r="K57" t="s">
+        <v>217</v>
+      </c>
+      <c r="L57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>219</v>
+      </c>
+      <c r="K58" t="s">
+        <v>220</v>
+      </c>
+      <c r="L58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>222</v>
+      </c>
+      <c r="K59" t="s">
+        <v>223</v>
+      </c>
+      <c r="L59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>225</v>
+      </c>
+      <c r="K60" t="s">
+        <v>226</v>
+      </c>
+      <c r="L60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>228</v>
+      </c>
+      <c r="K61" t="s">
+        <v>229</v>
+      </c>
+      <c r="L61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K62" t="s">
+        <v>232</v>
+      </c>
+      <c r="L62" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>234</v>
+      </c>
+      <c r="K63" t="s">
+        <v>235</v>
+      </c>
+      <c r="L63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>237</v>
+      </c>
+      <c r="K64" t="s">
+        <v>238</v>
+      </c>
+      <c r="L64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>240</v>
+      </c>
+      <c r="K65" t="s">
+        <v>241</v>
+      </c>
+      <c r="L65" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>243</v>
+      </c>
+      <c r="K66" t="s">
+        <v>244</v>
+      </c>
+      <c r="L66" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>246</v>
+      </c>
+      <c r="K67" t="s">
+        <v>247</v>
+      </c>
+      <c r="L67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>249</v>
+      </c>
+      <c r="K68" t="s">
+        <v>250</v>
+      </c>
+      <c r="L68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>252</v>
+      </c>
+      <c r="K69" t="s">
+        <v>253</v>
+      </c>
+      <c r="L69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>255</v>
+      </c>
+      <c r="K70" t="s">
+        <v>256</v>
+      </c>
+      <c r="L70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>258</v>
+      </c>
+      <c r="K71" t="s">
+        <v>259</v>
+      </c>
+      <c r="L71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>261</v>
+      </c>
+      <c r="K72" t="s">
+        <v>262</v>
+      </c>
+      <c r="L72" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>264</v>
+      </c>
+      <c r="K73" t="s">
+        <v>265</v>
+      </c>
+      <c r="L73" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>267</v>
+      </c>
+      <c r="K74" t="s">
+        <v>268</v>
+      </c>
+      <c r="L74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>270</v>
+      </c>
+      <c r="K75" t="s">
+        <v>271</v>
+      </c>
+      <c r="L75" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>273</v>
+      </c>
+      <c r="K76" t="s">
+        <v>274</v>
+      </c>
+      <c r="L76" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>276</v>
+      </c>
+      <c r="K77" t="s">
+        <v>277</v>
+      </c>
+      <c r="L77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>279</v>
+      </c>
+      <c r="K78" t="s">
+        <v>280</v>
+      </c>
+      <c r="L78" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>282</v>
+      </c>
+      <c r="K79" t="s">
+        <v>283</v>
+      </c>
+      <c r="L79" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>285</v>
+      </c>
+      <c r="K80" t="s">
+        <v>286</v>
+      </c>
+      <c r="L80" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>288</v>
+      </c>
+      <c r="K81" t="s">
+        <v>289</v>
+      </c>
+      <c r="L81" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>291</v>
+      </c>
+      <c r="K82" t="s">
+        <v>292</v>
+      </c>
+      <c r="L82" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>294</v>
+      </c>
+      <c r="K83" t="s">
+        <v>295</v>
+      </c>
+      <c r="L83" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>297</v>
+      </c>
+      <c r="K84" t="s">
+        <v>298</v>
+      </c>
+      <c r="L84" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>300</v>
+      </c>
+      <c r="K85" t="s">
+        <v>301</v>
+      </c>
+      <c r="L85" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>303</v>
+      </c>
+      <c r="K86" t="s">
+        <v>304</v>
+      </c>
+      <c r="L86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>306</v>
+      </c>
+      <c r="K87" t="s">
+        <v>307</v>
+      </c>
+      <c r="L87" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>309</v>
+      </c>
+      <c r="K88" t="s">
+        <v>310</v>
+      </c>
+      <c r="L88" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>312</v>
+      </c>
+      <c r="K89" t="s">
+        <v>313</v>
+      </c>
+      <c r="L89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>315</v>
+      </c>
+      <c r="K90" t="s">
+        <v>316</v>
+      </c>
+      <c r="L90" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>318</v>
+      </c>
+      <c r="K91" t="s">
+        <v>319</v>
+      </c>
+      <c r="L91" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>321</v>
+      </c>
+      <c r="K92" t="s">
+        <v>322</v>
+      </c>
+      <c r="L92" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>324</v>
+      </c>
+      <c r="K93" t="s">
+        <v>325</v>
+      </c>
+      <c r="L93" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>327</v>
+      </c>
+      <c r="K94" t="s">
+        <v>328</v>
+      </c>
+      <c r="L94" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>330</v>
+      </c>
+      <c r="K95" t="s">
+        <v>331</v>
+      </c>
+      <c r="L95" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>333</v>
+      </c>
+      <c r="K96" t="s">
+        <v>334</v>
+      </c>
+      <c r="L96" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>336</v>
+      </c>
+      <c r="K97" t="s">
+        <v>337</v>
+      </c>
+      <c r="L97" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>339</v>
+      </c>
+      <c r="K98" t="s">
+        <v>340</v>
+      </c>
+      <c r="L98" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>342</v>
+      </c>
+      <c r="K99" t="s">
+        <v>343</v>
+      </c>
+      <c r="L99" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>345</v>
+      </c>
+      <c r="K100" t="s">
+        <v>346</v>
+      </c>
+      <c r="L100" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>348</v>
+      </c>
+      <c r="K101" t="s">
+        <v>349</v>
+      </c>
+      <c r="L101" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>351</v>
+      </c>
+      <c r="K102" t="s">
+        <v>352</v>
+      </c>
+      <c r="L102" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>354</v>
+      </c>
+      <c r="K103" t="s">
+        <v>355</v>
+      </c>
+      <c r="L103" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>357</v>
+      </c>
+      <c r="K104" t="s">
+        <v>358</v>
+      </c>
+      <c r="L104" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>360</v>
+      </c>
+      <c r="K105" t="s">
+        <v>361</v>
+      </c>
+      <c r="L105" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>363</v>
+      </c>
+      <c r="K106" t="s">
+        <v>364</v>
+      </c>
+      <c r="L106" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>366</v>
+      </c>
+      <c r="K107" t="s">
+        <v>367</v>
+      </c>
+      <c r="L107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>369</v>
+      </c>
+      <c r="K108" t="s">
+        <v>370</v>
+      </c>
+      <c r="L108" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>372</v>
+      </c>
+      <c r="K109" t="s">
+        <v>373</v>
+      </c>
+      <c r="L109" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>375</v>
+      </c>
+      <c r="K110" t="s">
+        <v>376</v>
+      </c>
+      <c r="L110" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>378</v>
+      </c>
+      <c r="K111" t="s">
+        <v>379</v>
+      </c>
+      <c r="L111" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>381</v>
+      </c>
+      <c r="K112" t="s">
+        <v>382</v>
+      </c>
+      <c r="L112" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>384</v>
+      </c>
+      <c r="K113" t="s">
+        <v>385</v>
+      </c>
+      <c r="L113" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>387</v>
+      </c>
+      <c r="K114" t="s">
+        <v>388</v>
+      </c>
+      <c r="L114" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>390</v>
+      </c>
+      <c r="K115" t="s">
+        <v>391</v>
+      </c>
+      <c r="L115" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>393</v>
+      </c>
+      <c r="K116" t="s">
+        <v>394</v>
+      </c>
+      <c r="L116" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>396</v>
+      </c>
+      <c r="K117" t="s">
+        <v>397</v>
+      </c>
+      <c r="L117" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>399</v>
+      </c>
+      <c r="K118" t="s">
+        <v>400</v>
+      </c>
+      <c r="L118" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>402</v>
+      </c>
+      <c r="K119" t="s">
+        <v>403</v>
+      </c>
+      <c r="L119" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>405</v>
+      </c>
+      <c r="K120" t="s">
+        <v>406</v>
+      </c>
+      <c r="L120" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>408</v>
+      </c>
+      <c r="K121" t="s">
+        <v>409</v>
+      </c>
+      <c r="L121" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>411</v>
+      </c>
+      <c r="K122" t="s">
+        <v>412</v>
+      </c>
+      <c r="L122" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>414</v>
+      </c>
+      <c r="K123" t="s">
+        <v>415</v>
+      </c>
+      <c r="L123" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>417</v>
+      </c>
+      <c r="K124" t="s">
+        <v>418</v>
+      </c>
+      <c r="L124" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>423</v>
+      </c>
+      <c r="K125" t="s">
+        <v>424</v>
+      </c>
+      <c r="L125" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>426</v>
+      </c>
+      <c r="K126" t="s">
+        <v>427</v>
+      </c>
+      <c r="L126" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>429</v>
+      </c>
+      <c r="K127" t="s">
+        <v>430</v>
+      </c>
+      <c r="L127" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>432</v>
+      </c>
+      <c r="K128" t="s">
+        <v>433</v>
+      </c>
+      <c r="L128" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>435</v>
+      </c>
+      <c r="K129" t="s">
+        <v>436</v>
+      </c>
+      <c r="L129" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J130" t="s">
+        <v>438</v>
+      </c>
+      <c r="K130" t="s">
+        <v>439</v>
+      </c>
+      <c r="L130" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J131" t="s">
+        <v>441</v>
+      </c>
+      <c r="K131" t="s">
+        <v>442</v>
+      </c>
+      <c r="L131" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>444</v>
+      </c>
+      <c r="K132" t="s">
+        <v>445</v>
+      </c>
+      <c r="L132" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>447</v>
+      </c>
+      <c r="K133" t="s">
+        <v>448</v>
+      </c>
+      <c r="L133" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>450</v>
+      </c>
+      <c r="K134" t="s">
+        <v>451</v>
+      </c>
+      <c r="L134" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>453</v>
+      </c>
+      <c r="K135" t="s">
+        <v>454</v>
+      </c>
+      <c r="L135" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>456</v>
+      </c>
+      <c r="K136" t="s">
+        <v>457</v>
+      </c>
+      <c r="L136" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>459</v>
+      </c>
+      <c r="K137" t="s">
+        <v>460</v>
+      </c>
+      <c r="L137" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>462</v>
+      </c>
+      <c r="K138" t="s">
+        <v>463</v>
+      </c>
+      <c r="L138" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>465</v>
+      </c>
+      <c r="K139" t="s">
+        <v>466</v>
+      </c>
+      <c r="L139" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>468</v>
+      </c>
+      <c r="K140" t="s">
+        <v>469</v>
+      </c>
+      <c r="L140" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>471</v>
+      </c>
+      <c r="K141" t="s">
+        <v>472</v>
+      </c>
+      <c r="L141" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>477</v>
+      </c>
+      <c r="K142" t="s">
+        <v>478</v>
+      </c>
+      <c r="L142" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>480</v>
+      </c>
+      <c r="K143" t="s">
+        <v>481</v>
+      </c>
+      <c r="L143" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>483</v>
+      </c>
+      <c r="K144" t="s">
+        <v>484</v>
+      </c>
+      <c r="L144" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J145" t="s">
+        <v>486</v>
+      </c>
+      <c r="K145" t="s">
+        <v>487</v>
+      </c>
+      <c r="L145" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>489</v>
+      </c>
+      <c r="K146" t="s">
+        <v>490</v>
+      </c>
+      <c r="L146" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J147" t="s">
+        <v>492</v>
+      </c>
+      <c r="K147" t="s">
+        <v>493</v>
+      </c>
+      <c r="L147" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>495</v>
+      </c>
+      <c r="K148" t="s">
+        <v>496</v>
+      </c>
+      <c r="L148" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>498</v>
+      </c>
+      <c r="K149" t="s">
+        <v>499</v>
+      </c>
+      <c r="L149" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J150" t="s">
+        <v>501</v>
+      </c>
+      <c r="K150" t="s">
+        <v>502</v>
+      </c>
+      <c r="L150" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>504</v>
+      </c>
+      <c r="K151" t="s">
+        <v>505</v>
+      </c>
+      <c r="L151" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J152" t="s">
+        <v>507</v>
+      </c>
+      <c r="K152" t="s">
+        <v>508</v>
+      </c>
+      <c r="L152" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J153" t="s">
+        <v>510</v>
+      </c>
+      <c r="K153" t="s">
+        <v>511</v>
+      </c>
+      <c r="L153" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>513</v>
+      </c>
+      <c r="K154" t="s">
+        <v>514</v>
+      </c>
+      <c r="L154" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>516</v>
+      </c>
+      <c r="K155" t="s">
+        <v>517</v>
+      </c>
+      <c r="L155" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>519</v>
+      </c>
+      <c r="K156" t="s">
+        <v>520</v>
+      </c>
+      <c r="L156" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>522</v>
+      </c>
+      <c r="K157" t="s">
+        <v>523</v>
+      </c>
+      <c r="L157" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>525</v>
+      </c>
+      <c r="K158" t="s">
+        <v>526</v>
+      </c>
+      <c r="L158" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>531</v>
+      </c>
+      <c r="K159" t="s">
+        <v>532</v>
+      </c>
+      <c r="L159" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>534</v>
+      </c>
+      <c r="K160" t="s">
+        <v>535</v>
+      </c>
+      <c r="L160" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>537</v>
+      </c>
+      <c r="K161" t="s">
+        <v>538</v>
+      </c>
+      <c r="L161" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>540</v>
+      </c>
+      <c r="K162" t="s">
+        <v>541</v>
+      </c>
+      <c r="L162" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>543</v>
+      </c>
+      <c r="K163" t="s">
+        <v>544</v>
+      </c>
+      <c r="L163" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>546</v>
+      </c>
+      <c r="K164" t="s">
+        <v>547</v>
+      </c>
+      <c r="L164" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>549</v>
+      </c>
+      <c r="K165" t="s">
+        <v>550</v>
+      </c>
+      <c r="L165" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>552</v>
+      </c>
+      <c r="K166" t="s">
+        <v>553</v>
+      </c>
+      <c r="L166" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>555</v>
+      </c>
+      <c r="K167" t="s">
+        <v>556</v>
+      </c>
+      <c r="L167" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>561</v>
+      </c>
+      <c r="K168" t="s">
+        <v>562</v>
+      </c>
+      <c r="L168" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>564</v>
+      </c>
+      <c r="K169" t="s">
+        <v>565</v>
+      </c>
+      <c r="L169" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>567</v>
+      </c>
+      <c r="K170" t="s">
+        <v>568</v>
+      </c>
+      <c r="L170" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>570</v>
+      </c>
+      <c r="K171" t="s">
+        <v>571</v>
+      </c>
+      <c r="L171" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J172" t="s">
+        <v>573</v>
+      </c>
+      <c r="K172" t="s">
+        <v>574</v>
+      </c>
+      <c r="L172" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J173" t="s">
+        <v>576</v>
+      </c>
+      <c r="K173" t="s">
+        <v>577</v>
+      </c>
+      <c r="L173" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J174" t="s">
+        <v>579</v>
+      </c>
+      <c r="K174" t="s">
+        <v>580</v>
+      </c>
+      <c r="L174" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>582</v>
+      </c>
+      <c r="K175" t="s">
+        <v>583</v>
+      </c>
+      <c r="L175" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>585</v>
+      </c>
+      <c r="K176" t="s">
+        <v>586</v>
+      </c>
+      <c r="L176" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>588</v>
+      </c>
+      <c r="K177" t="s">
+        <v>589</v>
+      </c>
+      <c r="L177" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>591</v>
+      </c>
+      <c r="K178" t="s">
+        <v>592</v>
+      </c>
+      <c r="L178" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>594</v>
+      </c>
+      <c r="K179" t="s">
+        <v>595</v>
+      </c>
+      <c r="L179" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>597</v>
+      </c>
+      <c r="K180" t="s">
+        <v>598</v>
+      </c>
+      <c r="L180" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>600</v>
+      </c>
+      <c r="K181" t="s">
+        <v>601</v>
+      </c>
+      <c r="L181" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>603</v>
+      </c>
+      <c r="K182" t="s">
+        <v>604</v>
+      </c>
+      <c r="L182" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>606</v>
+      </c>
+      <c r="K183" t="s">
+        <v>607</v>
+      </c>
+      <c r="L183" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>609</v>
+      </c>
+      <c r="K184" t="s">
+        <v>610</v>
+      </c>
+      <c r="L184" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>612</v>
+      </c>
+      <c r="K185" t="s">
+        <v>613</v>
+      </c>
+      <c r="L185" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>615</v>
+      </c>
+      <c r="K186" t="s">
+        <v>616</v>
+      </c>
+      <c r="L186" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>618</v>
+      </c>
+      <c r="K187" t="s">
+        <v>619</v>
+      </c>
+      <c r="L187" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>621</v>
+      </c>
+      <c r="K188" t="s">
+        <v>622</v>
+      </c>
+      <c r="L188" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>624</v>
+      </c>
+      <c r="K189" t="s">
+        <v>625</v>
+      </c>
+      <c r="L189" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J190" t="s">
+        <v>627</v>
+      </c>
+      <c r="K190" t="s">
+        <v>628</v>
+      </c>
+      <c r="L190" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
+        <v>630</v>
+      </c>
+      <c r="K191" t="s">
+        <v>631</v>
+      </c>
+      <c r="L191" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J192" t="s">
+        <v>633</v>
+      </c>
+      <c r="K192" t="s">
+        <v>634</v>
+      </c>
+      <c r="L192" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J193" t="s">
+        <v>636</v>
+      </c>
+      <c r="K193" t="s">
+        <v>637</v>
+      </c>
+      <c r="L193" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J194" t="s">
+        <v>639</v>
+      </c>
+      <c r="K194" t="s">
+        <v>640</v>
+      </c>
+      <c r="L194" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J195" t="s">
+        <v>642</v>
+      </c>
+      <c r="K195" t="s">
+        <v>643</v>
+      </c>
+      <c r="L195" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J196" t="s">
+        <v>645</v>
+      </c>
+      <c r="K196" t="s">
+        <v>646</v>
+      </c>
+      <c r="L196" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J197" t="s">
+        <v>648</v>
+      </c>
+      <c r="K197" t="s">
+        <v>649</v>
+      </c>
+      <c r="L197" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J198" t="s">
+        <v>651</v>
+      </c>
+      <c r="K198" t="s">
+        <v>652</v>
+      </c>
+      <c r="L198" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>654</v>
+      </c>
+      <c r="K199" t="s">
+        <v>655</v>
+      </c>
+      <c r="L199" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J200" t="s">
+        <v>657</v>
+      </c>
+      <c r="K200" t="s">
+        <v>658</v>
+      </c>
+      <c r="L200" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J201" t="s">
+        <v>660</v>
+      </c>
+      <c r="K201" t="s">
+        <v>661</v>
+      </c>
+      <c r="L201" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J202" t="s">
+        <v>663</v>
+      </c>
+      <c r="K202" t="s">
+        <v>664</v>
+      </c>
+      <c r="L202" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>666</v>
+      </c>
+      <c r="K203" t="s">
+        <v>667</v>
+      </c>
+      <c r="L203" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>669</v>
+      </c>
+      <c r="K204" t="s">
+        <v>670</v>
+      </c>
+      <c r="L204" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>672</v>
+      </c>
+      <c r="K205" t="s">
+        <v>673</v>
+      </c>
+      <c r="L205" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J206" t="s">
+        <v>675</v>
+      </c>
+      <c r="K206" t="s">
+        <v>676</v>
+      </c>
+      <c r="L206" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>678</v>
+      </c>
+      <c r="K207" t="s">
+        <v>679</v>
+      </c>
+      <c r="L207" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>681</v>
+      </c>
+      <c r="K208" t="s">
+        <v>682</v>
+      </c>
+      <c r="L208" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J209" t="s">
+        <v>684</v>
+      </c>
+      <c r="K209" t="s">
+        <v>685</v>
+      </c>
+      <c r="L209" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J210" t="s">
+        <v>687</v>
+      </c>
+      <c r="K210" t="s">
+        <v>688</v>
+      </c>
+      <c r="L210" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J211" t="s">
+        <v>690</v>
+      </c>
+      <c r="K211" t="s">
+        <v>691</v>
+      </c>
+      <c r="L211" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>693</v>
+      </c>
+      <c r="K212" t="s">
+        <v>694</v>
+      </c>
+      <c r="L212" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J213" t="s">
+        <v>696</v>
+      </c>
+      <c r="K213" t="s">
+        <v>697</v>
+      </c>
+      <c r="L213" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J214" t="s">
+        <v>699</v>
+      </c>
+      <c r="K214" t="s">
+        <v>700</v>
+      </c>
+      <c r="L214" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J215" t="s">
+        <v>702</v>
+      </c>
+      <c r="K215" t="s">
+        <v>703</v>
+      </c>
+      <c r="L215" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J216" t="s">
+        <v>705</v>
+      </c>
+      <c r="K216" t="s">
+        <v>706</v>
+      </c>
+      <c r="L216" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J217" t="s">
+        <v>708</v>
+      </c>
+      <c r="K217" t="s">
+        <v>709</v>
+      </c>
+      <c r="L217" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J218" t="s">
+        <v>711</v>
+      </c>
+      <c r="K218" t="s">
+        <v>712</v>
+      </c>
+      <c r="L218" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J219" t="s">
+        <v>714</v>
+      </c>
+      <c r="K219" t="s">
+        <v>715</v>
+      </c>
+      <c r="L219" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J220" t="s">
+        <v>717</v>
+      </c>
+      <c r="K220" t="s">
+        <v>718</v>
+      </c>
+      <c r="L220" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J221" t="s">
+        <v>720</v>
+      </c>
+      <c r="K221" t="s">
+        <v>721</v>
+      </c>
+      <c r="L221" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J222" t="s">
+        <v>723</v>
+      </c>
+      <c r="K222" t="s">
+        <v>724</v>
+      </c>
+      <c r="L222" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J223" t="s">
+        <v>726</v>
+      </c>
+      <c r="K223" t="s">
+        <v>727</v>
+      </c>
+      <c r="L223" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J224" t="s">
+        <v>729</v>
+      </c>
+      <c r="K224" t="s">
+        <v>730</v>
+      </c>
+      <c r="L224" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J225" t="s">
+        <v>732</v>
+      </c>
+      <c r="K225" t="s">
+        <v>733</v>
+      </c>
+      <c r="L225" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J226" t="s">
+        <v>735</v>
+      </c>
+      <c r="K226" t="s">
+        <v>736</v>
+      </c>
+      <c r="L226" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J227" t="s">
+        <v>738</v>
+      </c>
+      <c r="K227" t="s">
+        <v>739</v>
+      </c>
+      <c r="L227" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J228" t="s">
+        <v>741</v>
+      </c>
+      <c r="K228" t="s">
+        <v>742</v>
+      </c>
+      <c r="L228" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J229" t="s">
+        <v>744</v>
+      </c>
+      <c r="K229" t="s">
+        <v>745</v>
+      </c>
+      <c r="L229" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J230" t="s">
+        <v>747</v>
+      </c>
+      <c r="K230" t="s">
+        <v>748</v>
+      </c>
+      <c r="L230" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J231" t="s">
+        <v>750</v>
+      </c>
+      <c r="K231" t="s">
+        <v>751</v>
+      </c>
+      <c r="L231" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J232" t="s">
+        <v>753</v>
+      </c>
+      <c r="K232" t="s">
+        <v>754</v>
+      </c>
+      <c r="L232" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J233" t="s">
+        <v>756</v>
+      </c>
+      <c r="K233" t="s">
+        <v>757</v>
+      </c>
+      <c r="L233" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J234" t="s">
+        <v>759</v>
+      </c>
+      <c r="K234" t="s">
+        <v>760</v>
+      </c>
+      <c r="L234" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J235" t="s">
+        <v>762</v>
+      </c>
+      <c r="K235" t="s">
+        <v>763</v>
+      </c>
+      <c r="L235" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J236" t="s">
+        <v>765</v>
+      </c>
+      <c r="K236" t="s">
+        <v>766</v>
+      </c>
+      <c r="L236" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J237" t="s">
+        <v>768</v>
+      </c>
+      <c r="K237" t="s">
+        <v>769</v>
+      </c>
+      <c r="L237" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J238" t="s">
+        <v>771</v>
+      </c>
+      <c r="K238" t="s">
+        <v>772</v>
+      </c>
+      <c r="L238" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J239" t="s">
+        <v>774</v>
+      </c>
+      <c r="K239" t="s">
+        <v>775</v>
+      </c>
+      <c r="L239" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J240" t="s">
+        <v>777</v>
+      </c>
+      <c r="K240" t="s">
+        <v>778</v>
+      </c>
+      <c r="L240" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J241" t="s">
+        <v>780</v>
+      </c>
+      <c r="K241" t="s">
+        <v>781</v>
+      </c>
+      <c r="L241" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J242" t="s">
+        <v>783</v>
+      </c>
+      <c r="K242" t="s">
+        <v>784</v>
+      </c>
+      <c r="L242" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J243" t="s">
+        <v>786</v>
+      </c>
+      <c r="K243" t="s">
+        <v>787</v>
+      </c>
+      <c r="L243" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J244" t="s">
+        <v>789</v>
+      </c>
+      <c r="K244" t="s">
+        <v>790</v>
+      </c>
+      <c r="L244" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J245" t="s">
+        <v>24</v>
+      </c>
+      <c r="K245" t="s">
+        <v>30</v>
+      </c>
+      <c r="L245" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J246" t="s">
+        <v>25</v>
+      </c>
+      <c r="K246" t="s">
+        <v>31</v>
+      </c>
+      <c r="L246" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J247" t="s">
+        <v>26</v>
+      </c>
+      <c r="K247" t="s">
+        <v>32</v>
+      </c>
+      <c r="L247" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J248" t="s">
+        <v>27</v>
+      </c>
+      <c r="K248" t="s">
+        <v>33</v>
+      </c>
+      <c r="L248" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J249" t="s">
+        <v>28</v>
+      </c>
+      <c r="K249" t="s">
+        <v>34</v>
+      </c>
+      <c r="L249" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>29</v>
       </c>
+      <c r="J250" t="s">
+        <v>29</v>
+      </c>
+      <c r="K250" t="s">
+        <v>35</v>
+      </c>
+      <c r="L250" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A250">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J250">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text=".">
-      <formula>NOT(ISERROR(SEARCH(".",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH(".",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
